--- a/foot_stats.xlsx
+++ b/foot_stats.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\candi\Downloads\archive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\candi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4406D5-C9E3-443F-AC72-D662446C5BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBCD97D-19D2-4F6F-9482-E56DE3B5AD38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5730" yWindow="6375" windowWidth="18930" windowHeight="9180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="foot_stats" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="207">
   <si>
     <t>Time</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Top Team Scorer</t>
   </si>
   <si>
-    <t>Q</t>
-  </si>
-  <si>
     <t>Barcelona  - ESP</t>
   </si>
   <si>
@@ -406,12 +403,6 @@
     <t>Sevilla  - ESP</t>
   </si>
   <si>
-    <t>Youssef En</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nesyri </t>
-  </si>
-  <si>
     <t>Werder Bremen  - GER</t>
   </si>
   <si>
@@ -607,12 +598,6 @@
     <t>Southampton  - ENG</t>
   </si>
   <si>
-    <t>James Ward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prowse </t>
-  </si>
-  <si>
     <t>Troyes  - FRA</t>
   </si>
   <si>
@@ -647,6 +632,15 @@
   </si>
   <si>
     <t xml:space="preserve">Adrien Hunou Sofiane Boufal </t>
+  </si>
+  <si>
+    <t>QG</t>
+  </si>
+  <si>
+    <t>James Ward Prowse</t>
+  </si>
+  <si>
+    <t>Youssef En Nesyri</t>
   </si>
 </sst>
 </file>
@@ -1490,12 +1484,13 @@
   <dimension ref="A1:K99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1527,15 +1522,15 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1561,16 +1556,16 @@
       <c r="I2">
         <v>73</v>
       </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2">
+      <c r="J2">
         <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1596,16 +1591,16 @@
       <c r="I3">
         <v>75</v>
       </c>
-      <c r="J3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3">
+      <c r="J3">
         <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1631,16 +1626,16 @@
       <c r="I4">
         <v>75</v>
       </c>
-      <c r="J4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4">
+      <c r="J4">
         <v>22</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1666,16 +1661,16 @@
       <c r="I5">
         <v>75</v>
       </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5">
+      <c r="J5">
         <v>15</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -1701,16 +1696,16 @@
       <c r="I6">
         <v>70</v>
       </c>
-      <c r="J6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6">
+      <c r="J6">
         <v>32</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1736,16 +1731,16 @@
       <c r="I7">
         <v>65</v>
       </c>
-      <c r="J7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7">
+      <c r="J7">
         <v>14</v>
+      </c>
+      <c r="K7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1771,16 +1766,16 @@
       <c r="I8">
         <v>60</v>
       </c>
-      <c r="J8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8">
+      <c r="J8">
         <v>8</v>
+      </c>
+      <c r="K8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -1806,16 +1801,16 @@
       <c r="I9">
         <v>60</v>
       </c>
-      <c r="J9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9">
+      <c r="J9">
         <v>11</v>
+      </c>
+      <c r="K9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -1841,16 +1836,16 @@
       <c r="I10">
         <v>66</v>
       </c>
-      <c r="J10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10">
+      <c r="J10">
         <v>17</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -1876,16 +1871,16 @@
       <c r="I11">
         <v>64</v>
       </c>
-      <c r="J11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11">
+      <c r="J11">
         <v>12</v>
+      </c>
+      <c r="K11" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -1911,16 +1906,16 @@
       <c r="I12">
         <v>59</v>
       </c>
-      <c r="J12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12">
+      <c r="J12">
         <v>11</v>
+      </c>
+      <c r="K12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -1946,16 +1941,16 @@
       <c r="I13">
         <v>61</v>
       </c>
-      <c r="J13" t="s">
-        <v>34</v>
-      </c>
-      <c r="K13">
+      <c r="J13">
         <v>10</v>
+      </c>
+      <c r="K13" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -1981,16 +1976,16 @@
       <c r="I14">
         <v>59</v>
       </c>
-      <c r="J14" t="s">
-        <v>36</v>
-      </c>
-      <c r="K14">
+      <c r="J14">
         <v>8</v>
+      </c>
+      <c r="K14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -2016,16 +2011,16 @@
       <c r="I15">
         <v>59</v>
       </c>
-      <c r="J15" t="s">
-        <v>38</v>
-      </c>
-      <c r="K15">
+      <c r="J15">
         <v>15</v>
+      </c>
+      <c r="K15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -2051,16 +2046,16 @@
       <c r="I16">
         <v>61</v>
       </c>
-      <c r="J16" t="s">
-        <v>40</v>
-      </c>
-      <c r="K16">
+      <c r="J16">
         <v>17</v>
+      </c>
+      <c r="K16" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -2086,16 +2081,16 @@
       <c r="I17">
         <v>56</v>
       </c>
-      <c r="J17" t="s">
-        <v>42</v>
-      </c>
-      <c r="K17">
+      <c r="J17">
         <v>11</v>
+      </c>
+      <c r="K17" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -2121,16 +2116,16 @@
       <c r="I18">
         <v>56</v>
       </c>
-      <c r="J18" t="s">
-        <v>44</v>
-      </c>
-      <c r="K18">
+      <c r="J18">
         <v>11</v>
+      </c>
+      <c r="K18" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -2156,16 +2151,16 @@
       <c r="I19">
         <v>52</v>
       </c>
-      <c r="J19" t="s">
-        <v>46</v>
-      </c>
-      <c r="K19">
+      <c r="J19">
         <v>8</v>
+      </c>
+      <c r="K19" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -2191,16 +2186,16 @@
       <c r="I20">
         <v>51</v>
       </c>
-      <c r="J20" t="s">
-        <v>48</v>
-      </c>
-      <c r="K20">
+      <c r="J20">
         <v>12</v>
+      </c>
+      <c r="K20" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -2226,16 +2221,16 @@
       <c r="I21">
         <v>54</v>
       </c>
-      <c r="J21" t="s">
-        <v>50</v>
-      </c>
-      <c r="K21">
+      <c r="J21">
         <v>10</v>
+      </c>
+      <c r="K21" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22">
         <v>5</v>
@@ -2261,16 +2256,16 @@
       <c r="I22">
         <v>50</v>
       </c>
-      <c r="J22" t="s">
-        <v>52</v>
-      </c>
-      <c r="K22">
+      <c r="J22">
         <v>13</v>
+      </c>
+      <c r="K22" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23">
         <v>5</v>
@@ -2296,16 +2291,16 @@
       <c r="I23">
         <v>53</v>
       </c>
-      <c r="J23" t="s">
-        <v>54</v>
-      </c>
-      <c r="K23">
+      <c r="J23">
         <v>10</v>
+      </c>
+      <c r="K23" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -2331,16 +2326,16 @@
       <c r="I24">
         <v>56</v>
       </c>
-      <c r="J24" t="s">
-        <v>56</v>
-      </c>
-      <c r="K24">
+      <c r="J24">
         <v>21</v>
+      </c>
+      <c r="K24" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25">
         <v>6</v>
@@ -2366,16 +2361,16 @@
       <c r="I25">
         <v>53</v>
       </c>
-      <c r="J25" t="s">
-        <v>58</v>
-      </c>
-      <c r="K25">
+      <c r="J25">
         <v>10</v>
+      </c>
+      <c r="K25" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26">
         <v>5</v>
@@ -2401,16 +2396,16 @@
       <c r="I26">
         <v>53</v>
       </c>
-      <c r="J26" t="s">
-        <v>60</v>
-      </c>
-      <c r="K26">
+      <c r="J26">
         <v>23</v>
+      </c>
+      <c r="K26" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27">
         <v>6</v>
@@ -2436,16 +2431,16 @@
       <c r="I27">
         <v>51</v>
       </c>
-      <c r="J27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K27">
+      <c r="J27">
         <v>14</v>
+      </c>
+      <c r="K27" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B28">
         <v>8</v>
@@ -2471,16 +2466,16 @@
       <c r="I28">
         <v>49</v>
       </c>
-      <c r="J28" t="s">
-        <v>64</v>
-      </c>
-      <c r="K28">
+      <c r="J28">
         <v>8</v>
+      </c>
+      <c r="K28" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B29">
         <v>7</v>
@@ -2506,16 +2501,16 @@
       <c r="I29">
         <v>49</v>
       </c>
-      <c r="J29" t="s">
-        <v>66</v>
-      </c>
-      <c r="K29">
+      <c r="J29">
         <v>13</v>
+      </c>
+      <c r="K29" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B30">
         <v>6</v>
@@ -2541,16 +2536,16 @@
       <c r="I30">
         <v>47</v>
       </c>
-      <c r="J30" t="s">
-        <v>68</v>
-      </c>
-      <c r="K30">
+      <c r="J30">
         <v>7</v>
+      </c>
+      <c r="K30" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B31">
         <v>7</v>
@@ -2576,16 +2571,16 @@
       <c r="I31">
         <v>50</v>
       </c>
-      <c r="J31" t="s">
-        <v>70</v>
-      </c>
-      <c r="K31">
+      <c r="J31">
         <v>16</v>
+      </c>
+      <c r="K31" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B32">
         <v>7</v>
@@ -2611,16 +2606,16 @@
       <c r="I32">
         <v>50</v>
       </c>
-      <c r="J32" t="s">
-        <v>72</v>
-      </c>
-      <c r="K32">
+      <c r="J32">
         <v>19</v>
+      </c>
+      <c r="K32" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B33">
         <v>5</v>
@@ -2646,16 +2641,16 @@
       <c r="I33">
         <v>48</v>
       </c>
-      <c r="J33" t="s">
-        <v>74</v>
-      </c>
-      <c r="K33">
+      <c r="J33">
         <v>12</v>
+      </c>
+      <c r="K33" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B34">
         <v>6</v>
@@ -2681,16 +2676,16 @@
       <c r="I34">
         <v>51</v>
       </c>
-      <c r="J34" t="s">
-        <v>76</v>
-      </c>
-      <c r="K34">
+      <c r="J34">
         <v>14</v>
+      </c>
+      <c r="K34" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B35">
         <v>7</v>
@@ -2716,16 +2711,16 @@
       <c r="I35">
         <v>44</v>
       </c>
-      <c r="J35" t="s">
-        <v>78</v>
-      </c>
-      <c r="K35">
+      <c r="J35">
         <v>9</v>
+      </c>
+      <c r="K35" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B36">
         <v>6</v>
@@ -2751,16 +2746,16 @@
       <c r="I36">
         <v>45</v>
       </c>
-      <c r="J36" t="s">
-        <v>80</v>
-      </c>
-      <c r="K36">
+      <c r="J36">
         <v>9</v>
+      </c>
+      <c r="K36" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B37">
         <v>7</v>
@@ -2786,16 +2781,16 @@
       <c r="I37">
         <v>46</v>
       </c>
-      <c r="J37" t="s">
-        <v>82</v>
-      </c>
-      <c r="K37">
+      <c r="J37">
         <v>8</v>
+      </c>
+      <c r="K37" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B38">
         <v>8</v>
@@ -2821,16 +2816,16 @@
       <c r="I38">
         <v>47</v>
       </c>
-      <c r="J38" t="s">
-        <v>84</v>
-      </c>
-      <c r="K38">
+      <c r="J38">
         <v>18</v>
+      </c>
+      <c r="K38" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B39">
         <v>8</v>
@@ -2856,16 +2851,16 @@
       <c r="I39">
         <v>43</v>
       </c>
-      <c r="J39" t="s">
-        <v>86</v>
-      </c>
-      <c r="K39">
+      <c r="J39">
         <v>6</v>
+      </c>
+      <c r="K39" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B40">
         <v>9</v>
@@ -2891,16 +2886,16 @@
       <c r="I40">
         <v>45</v>
       </c>
-      <c r="J40" t="s">
-        <v>88</v>
-      </c>
-      <c r="K40">
+      <c r="J40">
         <v>8</v>
+      </c>
+      <c r="K40" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B41">
         <v>9</v>
@@ -2926,16 +2921,16 @@
       <c r="I41">
         <v>42</v>
       </c>
-      <c r="J41" t="s">
-        <v>90</v>
-      </c>
-      <c r="K41">
+      <c r="J41">
         <v>13</v>
+      </c>
+      <c r="K41" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B42">
         <v>9</v>
@@ -2961,16 +2956,16 @@
       <c r="I42">
         <v>45</v>
       </c>
-      <c r="J42" t="s">
-        <v>92</v>
-      </c>
-      <c r="K42">
+      <c r="J42">
         <v>11</v>
+      </c>
+      <c r="K42" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B43">
         <v>10</v>
@@ -2996,16 +2991,16 @@
       <c r="I43">
         <v>45</v>
       </c>
-      <c r="J43" t="s">
-        <v>94</v>
-      </c>
-      <c r="K43">
+      <c r="J43">
         <v>12</v>
+      </c>
+      <c r="K43" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B44">
         <v>8</v>
@@ -3031,16 +3026,16 @@
       <c r="I44">
         <v>44</v>
       </c>
-      <c r="J44" t="s">
-        <v>96</v>
-      </c>
-      <c r="K44">
+      <c r="J44">
         <v>8</v>
+      </c>
+      <c r="K44" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B45">
         <v>9</v>
@@ -3066,16 +3061,16 @@
       <c r="I45">
         <v>42</v>
       </c>
-      <c r="J45" t="s">
-        <v>98</v>
-      </c>
-      <c r="K45">
+      <c r="J45">
         <v>7</v>
+      </c>
+      <c r="K45" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B46">
         <v>11</v>
@@ -3101,16 +3096,16 @@
       <c r="I46">
         <v>43</v>
       </c>
-      <c r="J46" t="s">
-        <v>100</v>
-      </c>
-      <c r="K46">
+      <c r="J46">
         <v>6</v>
+      </c>
+      <c r="K46" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B47">
         <v>10</v>
@@ -3136,16 +3131,16 @@
       <c r="I47">
         <v>44</v>
       </c>
-      <c r="J47" t="s">
-        <v>102</v>
-      </c>
-      <c r="K47">
+      <c r="J47">
         <v>19</v>
+      </c>
+      <c r="K47" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B48">
         <v>8</v>
@@ -3171,16 +3166,16 @@
       <c r="I48">
         <v>41</v>
       </c>
-      <c r="J48" t="s">
-        <v>104</v>
-      </c>
-      <c r="K48">
+      <c r="J48">
         <v>7</v>
+      </c>
+      <c r="K48" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B49">
         <v>10</v>
@@ -3206,16 +3201,16 @@
       <c r="I49">
         <v>42</v>
       </c>
-      <c r="J49" t="s">
-        <v>106</v>
-      </c>
-      <c r="K49">
+      <c r="J49">
         <v>9</v>
+      </c>
+      <c r="K49" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B50">
         <v>9</v>
@@ -3241,16 +3236,16 @@
       <c r="I50">
         <v>40</v>
       </c>
-      <c r="J50" t="s">
-        <v>108</v>
-      </c>
-      <c r="K50">
+      <c r="J50">
         <v>8</v>
+      </c>
+      <c r="K50" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B51">
         <v>12</v>
@@ -3276,16 +3271,16 @@
       <c r="I51">
         <v>39</v>
       </c>
-      <c r="J51" t="s">
-        <v>110</v>
-      </c>
-      <c r="K51">
+      <c r="J51">
         <v>10</v>
+      </c>
+      <c r="K51" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B52">
         <v>10</v>
@@ -3311,16 +3306,16 @@
       <c r="I52">
         <v>36</v>
       </c>
-      <c r="J52" t="s">
-        <v>112</v>
-      </c>
-      <c r="K52">
+      <c r="J52">
         <v>13</v>
+      </c>
+      <c r="K52" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B53">
         <v>11</v>
@@ -3346,16 +3341,16 @@
       <c r="I53">
         <v>40</v>
       </c>
-      <c r="J53" t="s">
-        <v>114</v>
-      </c>
-      <c r="K53">
+      <c r="J53">
         <v>7</v>
+      </c>
+      <c r="K53" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B54">
         <v>11</v>
@@ -3381,16 +3376,16 @@
       <c r="I54">
         <v>37</v>
       </c>
-      <c r="J54" t="s">
-        <v>116</v>
-      </c>
-      <c r="K54">
+      <c r="J54">
         <v>12</v>
+      </c>
+      <c r="K54" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B55">
         <v>10</v>
@@ -3416,16 +3411,16 @@
       <c r="I55">
         <v>38</v>
       </c>
-      <c r="J55" t="s">
-        <v>118</v>
-      </c>
-      <c r="K55">
+      <c r="J55">
         <v>7</v>
+      </c>
+      <c r="K55" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B56">
         <v>13</v>
@@ -3451,16 +3446,16 @@
       <c r="I56">
         <v>38</v>
       </c>
-      <c r="J56" t="s">
-        <v>120</v>
-      </c>
-      <c r="K56">
+      <c r="J56">
         <v>5</v>
+      </c>
+      <c r="K56" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B57">
         <v>11</v>
@@ -3486,16 +3481,16 @@
       <c r="I57">
         <v>39</v>
       </c>
-      <c r="J57" t="s">
-        <v>122</v>
-      </c>
-      <c r="K57">
+      <c r="J57">
         <v>7</v>
+      </c>
+      <c r="K57" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B58">
         <v>12</v>
@@ -3521,16 +3516,16 @@
       <c r="I58">
         <v>38</v>
       </c>
-      <c r="J58" t="s">
-        <v>124</v>
-      </c>
-      <c r="K58">
+      <c r="J58">
         <v>12</v>
+      </c>
+      <c r="K58" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B59">
         <v>11</v>
@@ -3556,16 +3551,16 @@
       <c r="I59">
         <v>35</v>
       </c>
-      <c r="J59" t="s">
-        <v>126</v>
-      </c>
-      <c r="K59">
+      <c r="J59">
         <v>6</v>
+      </c>
+      <c r="K59" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B60">
         <v>13</v>
@@ -3591,16 +3586,16 @@
       <c r="I60">
         <v>35</v>
       </c>
-      <c r="J60" t="s">
-        <v>128</v>
+      <c r="J60">
+        <v>7</v>
       </c>
       <c r="K60" t="s">
-        <v>129</v>
+        <v>206</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B61">
         <v>12</v>
@@ -3626,16 +3621,16 @@
       <c r="I61">
         <v>35</v>
       </c>
-      <c r="J61" t="s">
-        <v>131</v>
-      </c>
-      <c r="K61">
+      <c r="J61">
         <v>16</v>
+      </c>
+      <c r="K61" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B62">
         <v>12</v>
@@ -3661,16 +3656,16 @@
       <c r="I62">
         <v>36</v>
       </c>
-      <c r="J62" t="s">
-        <v>133</v>
-      </c>
-      <c r="K62">
+      <c r="J62">
         <v>12</v>
+      </c>
+      <c r="K62" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B63">
         <v>13</v>
@@ -3696,16 +3691,16 @@
       <c r="I63">
         <v>37</v>
       </c>
-      <c r="J63" t="s">
-        <v>135</v>
-      </c>
-      <c r="K63">
+      <c r="J63">
         <v>13</v>
+      </c>
+      <c r="K63" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B64">
         <v>14</v>
@@ -3731,16 +3726,16 @@
       <c r="I64">
         <v>35</v>
       </c>
-      <c r="J64" t="s">
-        <v>137</v>
-      </c>
-      <c r="K64">
+      <c r="J64">
         <v>5</v>
+      </c>
+      <c r="K64" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B65">
         <v>12</v>
@@ -3766,16 +3761,16 @@
       <c r="I65">
         <v>37</v>
       </c>
-      <c r="J65" t="s">
-        <v>139</v>
-      </c>
-      <c r="K65">
+      <c r="J65">
         <v>7</v>
+      </c>
+      <c r="K65" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B66">
         <v>16</v>
@@ -3801,16 +3796,16 @@
       <c r="I66">
         <v>31</v>
       </c>
-      <c r="J66" t="s">
-        <v>141</v>
-      </c>
-      <c r="K66">
+      <c r="J66">
         <v>13</v>
+      </c>
+      <c r="K66" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B67">
         <v>15</v>
@@ -3836,16 +3831,16 @@
       <c r="I67">
         <v>32</v>
       </c>
-      <c r="J67" t="s">
-        <v>143</v>
-      </c>
-      <c r="K67">
+      <c r="J67">
         <v>4</v>
+      </c>
+      <c r="K67" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B68">
         <v>15</v>
@@ -3871,16 +3866,16 @@
       <c r="I68">
         <v>32</v>
       </c>
-      <c r="J68" t="s">
-        <v>145</v>
-      </c>
-      <c r="K68">
+      <c r="J68">
         <v>3</v>
+      </c>
+      <c r="K68" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B69">
         <v>14</v>
@@ -3906,16 +3901,16 @@
       <c r="I69">
         <v>33</v>
       </c>
-      <c r="J69" t="s">
-        <v>147</v>
-      </c>
-      <c r="K69">
+      <c r="J69">
         <v>11</v>
+      </c>
+      <c r="K69" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B70">
         <v>13</v>
@@ -3941,16 +3936,16 @@
       <c r="I70">
         <v>34</v>
       </c>
-      <c r="J70" t="s">
-        <v>149</v>
-      </c>
-      <c r="K70">
+      <c r="J70">
         <v>6</v>
+      </c>
+      <c r="K70" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B71">
         <v>14</v>
@@ -3976,16 +3971,16 @@
       <c r="I71">
         <v>33</v>
       </c>
-      <c r="J71" t="s">
-        <v>151</v>
-      </c>
-      <c r="K71">
+      <c r="J71">
         <v>7</v>
+      </c>
+      <c r="K71" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B72">
         <v>15</v>
@@ -4011,16 +4006,16 @@
       <c r="I72">
         <v>31</v>
       </c>
-      <c r="J72" t="s">
-        <v>153</v>
-      </c>
-      <c r="K72">
+      <c r="J72">
         <v>5</v>
+      </c>
+      <c r="K72" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B73">
         <v>13</v>
@@ -4046,16 +4041,16 @@
       <c r="I73">
         <v>30</v>
       </c>
-      <c r="J73" t="s">
-        <v>155</v>
-      </c>
-      <c r="K73">
+      <c r="J73">
         <v>9</v>
+      </c>
+      <c r="K73" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B74">
         <v>14</v>
@@ -4081,16 +4076,16 @@
       <c r="I74">
         <v>33</v>
       </c>
-      <c r="J74" t="s">
-        <v>157</v>
-      </c>
-      <c r="K74">
+      <c r="J74">
         <v>5</v>
+      </c>
+      <c r="K74" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B75">
         <v>15</v>
@@ -4116,16 +4111,16 @@
       <c r="I75">
         <v>31</v>
       </c>
-      <c r="J75" t="s">
-        <v>159</v>
-      </c>
-      <c r="K75">
+      <c r="J75">
         <v>8</v>
+      </c>
+      <c r="K75" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B76">
         <v>14</v>
@@ -4151,16 +4146,16 @@
       <c r="I76">
         <v>29</v>
       </c>
-      <c r="J76" t="s">
-        <v>161</v>
-      </c>
-      <c r="K76">
+      <c r="J76">
         <v>9</v>
+      </c>
+      <c r="K76" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B77">
         <v>16</v>
@@ -4186,16 +4181,16 @@
       <c r="I77">
         <v>31</v>
       </c>
-      <c r="J77" t="s">
-        <v>163</v>
-      </c>
-      <c r="K77">
+      <c r="J77">
         <v>8</v>
+      </c>
+      <c r="K77" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B78">
         <v>17</v>
@@ -4221,16 +4216,16 @@
       <c r="I78">
         <v>30</v>
       </c>
-      <c r="J78" t="s">
-        <v>165</v>
-      </c>
-      <c r="K78">
+      <c r="J78">
         <v>6</v>
+      </c>
+      <c r="K78" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B79">
         <v>17</v>
@@ -4256,16 +4251,16 @@
       <c r="I79">
         <v>29</v>
       </c>
-      <c r="J79" t="s">
-        <v>167</v>
-      </c>
-      <c r="K79">
+      <c r="J79">
         <v>15</v>
+      </c>
+      <c r="K79" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B80">
         <v>19</v>
@@ -4291,16 +4286,16 @@
       <c r="I80">
         <v>27</v>
       </c>
-      <c r="J80" t="s">
-        <v>169</v>
-      </c>
-      <c r="K80">
+      <c r="J80">
         <v>5</v>
+      </c>
+      <c r="K80" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B81">
         <v>16</v>
@@ -4326,16 +4321,16 @@
       <c r="I81">
         <v>28</v>
       </c>
-      <c r="J81" t="s">
-        <v>171</v>
-      </c>
-      <c r="K81">
+      <c r="J81">
         <v>7</v>
+      </c>
+      <c r="K81" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B82">
         <v>18</v>
@@ -4361,16 +4356,16 @@
       <c r="I82">
         <v>28</v>
       </c>
-      <c r="J82" t="s">
-        <v>173</v>
-      </c>
-      <c r="K82">
+      <c r="J82">
         <v>12</v>
+      </c>
+      <c r="K82" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B83">
         <v>15</v>
@@ -4396,16 +4391,16 @@
       <c r="I83">
         <v>27</v>
       </c>
-      <c r="J83" t="s">
-        <v>175</v>
-      </c>
-      <c r="K83">
+      <c r="J83">
         <v>8</v>
+      </c>
+      <c r="K83" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B84">
         <v>16</v>
@@ -4431,16 +4426,16 @@
       <c r="I84">
         <v>29</v>
       </c>
-      <c r="J84" t="s">
-        <v>177</v>
-      </c>
-      <c r="K84">
+      <c r="J84">
         <v>11</v>
+      </c>
+      <c r="K84" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B85">
         <v>17</v>
@@ -4466,16 +4461,16 @@
       <c r="I85">
         <v>28</v>
       </c>
-      <c r="J85" t="s">
-        <v>179</v>
-      </c>
-      <c r="K85">
+      <c r="J85">
         <v>10</v>
+      </c>
+      <c r="K85" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B86">
         <v>18</v>
@@ -4501,16 +4496,16 @@
       <c r="I86">
         <v>28</v>
       </c>
-      <c r="J86" t="s">
-        <v>181</v>
-      </c>
-      <c r="K86">
+      <c r="J86">
         <v>4</v>
+      </c>
+      <c r="K86" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B87">
         <v>17</v>
@@ -4536,16 +4531,16 @@
       <c r="I87">
         <v>27</v>
       </c>
-      <c r="J87" t="s">
-        <v>183</v>
-      </c>
-      <c r="K87">
+      <c r="J87">
         <v>13</v>
+      </c>
+      <c r="K87" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B88">
         <v>16</v>
@@ -4571,16 +4566,16 @@
       <c r="I88">
         <v>25</v>
       </c>
-      <c r="J88" t="s">
-        <v>185</v>
-      </c>
-      <c r="K88">
+      <c r="J88">
         <v>7</v>
+      </c>
+      <c r="K88" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B89">
         <v>17</v>
@@ -4606,16 +4601,16 @@
       <c r="I89">
         <v>24</v>
       </c>
-      <c r="J89" t="s">
-        <v>187</v>
-      </c>
-      <c r="K89">
+      <c r="J89">
         <v>9</v>
+      </c>
+      <c r="K89" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B90">
         <v>18</v>
@@ -4641,16 +4636,16 @@
       <c r="I90">
         <v>26</v>
       </c>
-      <c r="J90" t="s">
-        <v>189</v>
-      </c>
-      <c r="K90">
+      <c r="J90">
         <v>4</v>
+      </c>
+      <c r="K90" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B91">
         <v>19</v>
@@ -4676,16 +4671,16 @@
       <c r="I91">
         <v>27</v>
       </c>
-      <c r="J91" t="s">
-        <v>191</v>
-      </c>
-      <c r="K91">
+      <c r="J91">
         <v>8</v>
+      </c>
+      <c r="K91" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B92">
         <v>18</v>
@@ -4711,16 +4706,16 @@
       <c r="I92">
         <v>22</v>
       </c>
-      <c r="J92" t="s">
-        <v>193</v>
-      </c>
-      <c r="K92">
+      <c r="J92">
         <v>11</v>
+      </c>
+      <c r="K92" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B93">
         <v>20</v>
@@ -4746,16 +4741,16 @@
       <c r="I93">
         <v>24</v>
       </c>
-      <c r="J93" t="s">
-        <v>195</v>
+      <c r="J93">
+        <v>7</v>
       </c>
       <c r="K93" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B94">
         <v>18</v>
@@ -4781,16 +4776,16 @@
       <c r="I94">
         <v>21</v>
       </c>
-      <c r="J94" t="s">
-        <v>198</v>
-      </c>
-      <c r="K94">
+      <c r="J94">
         <v>11</v>
+      </c>
+      <c r="K94" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B95">
         <v>19</v>
@@ -4816,16 +4811,16 @@
       <c r="I95">
         <v>21</v>
       </c>
-      <c r="J95" t="s">
-        <v>200</v>
-      </c>
-      <c r="K95">
+      <c r="J95">
         <v>6</v>
+      </c>
+      <c r="K95" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B96">
         <v>19</v>
@@ -4851,16 +4846,16 @@
       <c r="I96">
         <v>19</v>
       </c>
-      <c r="J96" t="s">
-        <v>202</v>
-      </c>
-      <c r="K96">
+      <c r="J96">
         <v>6</v>
+      </c>
+      <c r="K96" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B97">
         <v>20</v>
@@ -4886,16 +4881,16 @@
       <c r="I97">
         <v>17</v>
       </c>
-      <c r="J97" t="s">
-        <v>204</v>
-      </c>
-      <c r="K97">
+      <c r="J97">
         <v>6</v>
+      </c>
+      <c r="K97" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B98">
         <v>20</v>
@@ -4921,16 +4916,16 @@
       <c r="I98">
         <v>13</v>
       </c>
-      <c r="J98" t="s">
-        <v>206</v>
-      </c>
-      <c r="K98">
+      <c r="J98">
         <v>6</v>
+      </c>
+      <c r="K98" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B99">
         <v>20</v>
@@ -4956,11 +4951,11 @@
       <c r="I99">
         <v>14</v>
       </c>
-      <c r="J99" t="s">
-        <v>208</v>
-      </c>
-      <c r="K99">
+      <c r="J99">
         <v>4</v>
+      </c>
+      <c r="K99" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
